--- a/MCD-MLD.xlsx
+++ b/MCD-MLD.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DONKEY-SCHOOL\Projets\DONKEYRENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689B32D-F9D6-41ED-A91B-B9B74C2DF49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F1D8CB-942C-4CE4-AFC6-B10837DEFFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D029732A-F598-4035-8554-522B1511FC71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D029732A-F598-4035-8554-522B1511FC71}"/>
   </bookViews>
   <sheets>
-    <sheet name="MCD" sheetId="1" r:id="rId1"/>
+    <sheet name="MCD-MLD" sheetId="1" r:id="rId1"/>
+    <sheet name="Maquette" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>Photo</t>
   </si>
@@ -113,9 +114,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>Véhicle</t>
-  </si>
-  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -140,9 +138,6 @@
     <t>Reservations</t>
   </si>
   <si>
-    <t>eMail</t>
-  </si>
-  <si>
     <t>pssword</t>
   </si>
   <si>
@@ -168,6 +163,57 @@
   </si>
   <si>
     <t>id_resa</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>nbSeats</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>dateArrival</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>Page de connexion / déconexion</t>
+  </si>
+  <si>
+    <t>Flote</t>
+  </si>
+  <si>
+    <t>Tourisme</t>
+  </si>
+  <si>
+    <t>Utilitaire</t>
+  </si>
+  <si>
+    <t>Mes réservations</t>
+  </si>
+  <si>
+    <t>A propos</t>
+  </si>
+  <si>
+    <t>Formulaire de réservation</t>
+  </si>
+  <si>
+    <t>Ajout véhicules</t>
+  </si>
+  <si>
+    <t>Connexion Admin</t>
   </si>
 </sst>
 </file>
@@ -306,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -327,10 +373,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,6 +794,811 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1090448</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1090448</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCE7BA9-E8EB-3C5D-4BAA-A66351002350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5176345" y="578069"/>
+          <a:ext cx="0" cy="367862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367862</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367862</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D8C280-7B79-4379-94F5-4ACF4B33D696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1891862" y="1143000"/>
+          <a:ext cx="0" cy="223345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446690</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45983</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur droit 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB49AFF6-CF7B-DE32-6C80-9A5C7C9F9BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1156138" y="1366345"/>
+          <a:ext cx="1576552" cy="13138"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>420414</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466397</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connecteur droit 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246DCDF9-D066-4F2A-86D8-379CF9863AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1182414" y="722586"/>
+          <a:ext cx="8736724" cy="26276"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9AC9FA-8940-4E30-BA84-05286353AAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1156138" y="1386052"/>
+          <a:ext cx="0" cy="137948"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>440121</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>441434</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8C3C72-AEB3-4830-9C6D-1D824230496D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2726121" y="1367658"/>
+          <a:ext cx="1313" cy="149773"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>980088</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>985345</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connecteur droit 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C24D0A4-A524-4FCD-8E24-E74B2B7D5741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6944709" y="735724"/>
+          <a:ext cx="5257" cy="223345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>420414</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428296</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>169480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connecteur droit 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094BCB01-BA3E-49BC-B71C-4E06E90259B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1944414" y="748862"/>
+          <a:ext cx="7882" cy="182618"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>374431</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connecteur droit 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935C4547-ED8E-2950-1250-CA5941F9D0AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1136431" y="1996966"/>
+          <a:ext cx="2949466" cy="13137"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>374431</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6F7680-B5AC-1B72-4977-4757C570A9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1136431" y="1707931"/>
+          <a:ext cx="6569" cy="289035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972207</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>978776</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Connecteur droit 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44B285B-2F9E-449C-91BC-7EAEEDE1525B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9012621" y="1156138"/>
+          <a:ext cx="6569" cy="840828"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350783</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354724</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connecteur droit 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3126B3B3-0F1F-4808-9221-D54C38AB3C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2636783" y="1723696"/>
+          <a:ext cx="3941" cy="273270"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2142797</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972207</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112985</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Connecteur droit 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B82588-DA6A-41DD-8F01-B2611A3F7B99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6228694" y="1996966"/>
+          <a:ext cx="2783927" cy="21019"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505812</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505812</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connecteur droit 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F601413A-8D57-C9ED-A378-25F6DE8C09B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8434553" y="735723"/>
+          <a:ext cx="0" cy="210208"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466398</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466398</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Connecteur droit 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA43C3B-C019-4FFF-8EEE-7FF876D7E5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9919139" y="722586"/>
+          <a:ext cx="0" cy="236483"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518949</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518949</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Connecteur droit 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD571D3F-95B4-9A8F-FE94-5DC8CAD9A255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8447690" y="1143000"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1072,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083BF8BD-63AB-436F-9078-2F1A0BD95C25}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,24 +1949,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1122,20 +1979,20 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1146,27 +2003,27 @@
         <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>6</v>
@@ -1175,34 +2032,34 @@
         <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1210,54 +2067,54 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N10" s="1"/>
       <c r="P10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1265,25 +2122,25 @@
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1294,13 +2151,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1311,14 +2168,14 @@
         <v>7</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L17" s="6"/>
       <c r="N17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>0</v>
+      <c r="P17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1331,72 +2188,78 @@
       <c r="E18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>42</v>
+      <c r="I18" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L19" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
       <c r="L24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1406,12 +2269,12 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="11" t="s">
-        <v>27</v>
+      <c r="L27" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1422,4 +2285,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40167C60-24B2-4D15-A96A-D2CF285B6E5F}">
+  <dimension ref="B3:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="I9" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>